--- a/Hackathon/src/test/resources/HackathonOutputs.xlsx
+++ b/Hackathon/src/test/resources/HackathonOutputs.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303728\eclipse-workspace\Hackathon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC849D0-42C8-48AB-AE4C-9EE074EBEDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3EC12-5722-498F-9F1E-68698EEB741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2810" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{D879791B-006A-4F60-9905-00F8DB2EEF08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D879791B-006A-4F60-9905-00F8DB2EEF08}"/>
   </bookViews>
   <sheets>
     <sheet name="SmokeOutput" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Travel Insurance Plan Prices</t>
   </si>
@@ -133,41 +133,16 @@
     <t>₹437/month</t>
   </si>
   <si>
-    <t>ReAssure 2.0 Bronze+ (Direct)</t>
-  </si>
-  <si>
-    <t>₹663/month</t>
-  </si>
-  <si>
-    <t>Smart Health Pro</t>
-  </si>
-  <si>
-    <t>₹553/month</t>
-  </si>
-  <si>
-    <t>Care Supreme Direct</t>
-  </si>
-  <si>
-    <t>₹615/month</t>
-  </si>
-  <si>
-    <t>₹499/month</t>
-  </si>
-  <si>
     <t>Select one option</t>
   </si>
   <si>
-    <t>₹2,156</t>
-  </si>
-  <si>
-    <t>Care Health</t>
+    <t>Health Insurance menu list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,10 +196,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,49 +514,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E252A1F-B2DD-454B-A7F7-A402FC4DB4AC}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.81640625"/>
+    <col min="1" max="1" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="46.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -594,14 +573,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B8ED65-FB25-4DCC-A1E8-06DEB215AC5A}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.81640625"/>
-    <col min="2" max="2" customWidth="true" width="35.54296875"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -613,26 +592,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -645,67 +624,67 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
-        <v>38</v>
+      <c r="A20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -723,8 +702,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.36328125"/>
-    <col min="2" max="2" customWidth="true" width="36.1796875"/>
+    <col min="1" max="1" width="38.36328125" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -736,26 +715,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>40</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -768,26 +747,26 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -797,12 +776,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Hackathon/src/test/resources/HackathonOutputs.xlsx
+++ b/Hackathon/src/test/resources/HackathonOutputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303728\eclipse-workspace\Hackathon\src\test\resources\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
   <si>
     <t>Travel Insurance Plan Prices</t>
   </si>
@@ -137,12 +137,67 @@
   </si>
   <si>
     <t>Health Insurance menu list</t>
+  </si>
+  <si>
+    <t>ReAssure 2.0 Bronze+ (Direct)</t>
+  </si>
+  <si>
+    <t>₹663/month</t>
+  </si>
+  <si>
+    <t>Smart Health Pro</t>
+  </si>
+  <si>
+    <t>₹553/month</t>
+  </si>
+  <si>
+    <t>Care Supreme Direct</t>
+  </si>
+  <si>
+    <t>₹615/month</t>
+  </si>
+  <si>
+    <t>Family Health Insurance</t>
+  </si>
+  <si>
+    <t>Senior Citizen Health Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance for Parents</t>
+  </si>
+  <si>
+    <t>Best Health Insurance Plans</t>
+  </si>
+  <si>
+    <t>Maternity Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance Portability</t>
+  </si>
+  <si>
+    <t>Mediclaim Policy</t>
+  </si>
+  <si>
+    <t>Critical Illness Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance Calculator</t>
+  </si>
+  <si>
+    <t>Health Insurance Companies</t>
+  </si>
+  <si>
+    <t>Health Insurance for NRIs</t>
+  </si>
+  <si>
+    <t>Health Insurance Claim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E252A1F-B2DD-454B-A7F7-A402FC4DB4AC}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -522,8 +577,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" customWidth="1"/>
-    <col min="2" max="2" width="46.36328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.81640625"/>
+    <col min="2" max="2" customWidth="true" width="46.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -535,33 +590,81 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B2" t="s" s="0">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>22</v>
+      <c r="A3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>23</v>
       </c>
+      <c r="B4" t="s" s="0">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>24</v>
+      <c r="A5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>23</v>
       </c>
+      <c r="B6" t="s" s="0">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>13</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="0">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -579,8 +682,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.81640625"/>
+    <col min="2" max="2" customWidth="true" width="35.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -592,26 +695,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -624,26 +727,26 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -653,37 +756,37 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -702,8 +805,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="38.36328125"/>
+    <col min="2" max="2" customWidth="true" width="36.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -715,26 +818,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -747,26 +850,26 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -776,12 +879,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>13</v>
       </c>
     </row>

--- a/Hackathon/src/test/resources/HackathonOutputs.xlsx
+++ b/Hackathon/src/test/resources/HackathonOutputs.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303728\eclipse-workspace\Hackathon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3EC12-5722-498F-9F1E-68698EEB741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1E0F1A-D6F9-450E-8A55-1EDAEE7371D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D879791B-006A-4F60-9905-00F8DB2EEF08}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Travel Insurance Plan Prices</t>
   </si>
@@ -139,24 +139,6 @@
     <t>Health Insurance menu list</t>
   </si>
   <si>
-    <t>ReAssure 2.0 Bronze+ (Direct)</t>
-  </si>
-  <si>
-    <t>₹663/month</t>
-  </si>
-  <si>
-    <t>Smart Health Pro</t>
-  </si>
-  <si>
-    <t>₹553/month</t>
-  </si>
-  <si>
-    <t>Care Supreme Direct</t>
-  </si>
-  <si>
-    <t>₹615/month</t>
-  </si>
-  <si>
     <t>Family Health Insurance</t>
   </si>
   <si>
@@ -191,13 +173,18 @@
   </si>
   <si>
     <t>Health Insurance Claim</t>
+  </si>
+  <si>
+    <t>Health insurance menu list</t>
+  </si>
+  <si>
+    <t>Helath insurance Error statements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,13 +559,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.81640625"/>
-    <col min="2" max="2" customWidth="true" width="46.36328125"/>
+    <col min="1" max="1" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="46.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -590,81 +577,81 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s" s="0">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -677,13 +664,13 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.81640625"/>
-    <col min="2" max="2" customWidth="true" width="35.54296875"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -695,26 +682,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -727,66 +714,66 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -797,94 +784,142 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A326785F-CA9E-4B62-9678-D9951E7A817A}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.36328125"/>
-    <col min="2" max="2" customWidth="true" width="36.1796875"/>
+    <col min="1" max="1" width="38.36328125" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Hackathon/src/test/resources/HackathonOutputs.xlsx
+++ b/Hackathon/src/test/resources/HackathonOutputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303728\eclipse-workspace\Hackathon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E29F2D-5F4B-42AE-8D22-0F7F37A15FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9023C3F-F89C-43E3-B7B9-C2E35F0CA518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D879791B-006A-4F60-9905-00F8DB2EEF08}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="49">
   <si>
     <t>Travel Insurance Plan Prices</t>
   </si>
@@ -64,12 +64,6 @@
     <t>Reliance</t>
   </si>
   <si>
-    <t>Please enter a valid car number</t>
-  </si>
-  <si>
-    <t>Please enter a valid e-mail ID.</t>
-  </si>
-  <si>
     <t>Family Health Insurance</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>₹437/month</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Health Insurance Menu list</t>
   </si>
   <si>
@@ -179,6 +170,21 @@
   </si>
   <si>
     <t>error statements for travel insurance</t>
+  </si>
+  <si>
+    <t>Please enter your full name.</t>
+  </si>
+  <si>
+    <t>Please enter valid registration number</t>
+  </si>
+  <si>
+    <t>Please enter valid email address</t>
+  </si>
+  <si>
+    <t>Please enter your email address</t>
+  </si>
+  <si>
+    <t>Please enter mobile number</t>
   </si>
 </sst>
 </file>
@@ -584,80 +590,80 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -675,20 +681,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.90625"/>
+    <col min="1" max="1" customWidth="true" width="36.7265625"/>
     <col min="2" max="2" customWidth="true" width="40.08984375"/>
     <col min="3" max="3" customWidth="true" width="28.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -699,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -710,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -721,89 +727,89 @@
         <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C12" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -821,95 +827,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.08984375"/>
+    <col min="1" max="1" customWidth="true" width="42.26953125"/>
     <col min="2" max="2" customWidth="true" width="36.26953125"/>
     <col min="4" max="4" customWidth="true" width="22.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>8</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
